--- a/artfynd/A 14959-2023.xlsx
+++ b/artfynd/A 14959-2023.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105312450</v>
+        <v>105312457</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>693471.6218713385</v>
+        <v>693263.4084908448</v>
       </c>
       <c r="R3" t="n">
-        <v>7040040.491954568</v>
+        <v>7040058.826275708</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105312457</v>
+        <v>105312456</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>693263.4084908448</v>
+        <v>693258.742931714</v>
       </c>
       <c r="R4" t="n">
-        <v>7040058.826275708</v>
+        <v>7040061.684062609</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105312449</v>
+        <v>105312450</v>
       </c>
       <c r="B5" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,25 +1043,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>693407.8184769254</v>
+        <v>693471.6218713385</v>
       </c>
       <c r="R5" t="n">
-        <v>7040040.660559857</v>
+        <v>7040040.491954568</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105312456</v>
+        <v>105312449</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>693258.742931714</v>
+        <v>693407.8184769254</v>
       </c>
       <c r="R6" t="n">
-        <v>7040061.684062609</v>
+        <v>7040040.660559857</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 14959-2023.xlsx
+++ b/artfynd/A 14959-2023.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105312457</v>
+        <v>105312450</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>693263.4084908448</v>
+        <v>693471.6218713385</v>
       </c>
       <c r="R3" t="n">
-        <v>7040058.826275708</v>
+        <v>7040040.491954568</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105312456</v>
+        <v>105312457</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>693258.742931714</v>
+        <v>693263.4084908448</v>
       </c>
       <c r="R4" t="n">
-        <v>7040061.684062609</v>
+        <v>7040058.826275708</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105312450</v>
+        <v>105312449</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,25 +1043,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>693471.6218713385</v>
+        <v>693407.8184769254</v>
       </c>
       <c r="R5" t="n">
-        <v>7040040.491954568</v>
+        <v>7040040.660559857</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105312449</v>
+        <v>105312456</v>
       </c>
       <c r="B6" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>693407.8184769254</v>
+        <v>693258.742931714</v>
       </c>
       <c r="R6" t="n">
-        <v>7040040.660559857</v>
+        <v>7040061.684062609</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
